--- a/source data/Source_data.xlsx
+++ b/source data/Source_data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\waste_to_energy_allocation\waste_to_energy_allocation\source data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9177BCA7-477F-4D8A-8462-716BD2295D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB849BA6-01A1-47A7-AE28-B0076D3C65BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31485" yWindow="3945" windowWidth="24240" windowHeight="15435" activeTab="3" xr2:uid="{4293656A-ABA0-4CE7-A0D1-32F8EAA04E51}"/>
+    <workbookView xWindow="52860" yWindow="3405" windowWidth="24240" windowHeight="15435" activeTab="4" xr2:uid="{4293656A-ABA0-4CE7-A0D1-32F8EAA04E51}"/>
   </bookViews>
   <sheets>
-    <sheet name="fig_2a" sheetId="2" r:id="rId1"/>
-    <sheet name="fig_2b" sheetId="1" r:id="rId2"/>
-    <sheet name="fig2c" sheetId="3" r:id="rId3"/>
-    <sheet name="fig2d" sheetId="4" r:id="rId4"/>
-    <sheet name="fig4" sheetId="5" r:id="rId5"/>
+    <sheet name="fig_1a" sheetId="2" r:id="rId1"/>
+    <sheet name="fig_1b" sheetId="1" r:id="rId2"/>
+    <sheet name="fig1c" sheetId="3" r:id="rId3"/>
+    <sheet name="fig1d" sheetId="4" r:id="rId4"/>
+    <sheet name="fig3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4398,7 +4398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295BEF02-2E3E-47A3-A6A3-970E53D5E5F0}">
   <dimension ref="B4:CY23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -7866,7 +7866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7C5FBC-0369-4BA3-B9A3-51972B61F248}">
   <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
